--- a/dados/cef/inadimplentes/lucas.xlsx
+++ b/dados/cef/inadimplentes/lucas.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_118F64BC16FBE09B43D75D817E054DDCD555CC51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888F5189-22EB-4C41-B38F-4CC92B186CF3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D5D4F9CBF74F67BA7716530AC9764C90F737C029" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09B3F8D-5308-40AE-BBFE-1F62A3FD61EC}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3675" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
   <si>
     <t>Folha No 1</t>
   </si>
   <si>
-    <t>Relatório de Inadimplência - Data de Referência: 05/03/2025</t>
-  </si>
-  <si>
-    <t>Impresso em: 05/03/2025 11:26:57</t>
+    <t>Relatório de Inadimplência - Data de Referência: 01/04/2025</t>
+  </si>
+  <si>
+    <t>Impresso em: 01/04/2025 10:04:08</t>
   </si>
   <si>
     <t>Título</t>
@@ -105,277 +92,262 @@
     <t>Imobiliaria/Corretor:</t>
   </si>
   <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>004/004</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>460,94</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>0,37</t>
+  </si>
+  <si>
+    <t>1,08</t>
+  </si>
+  <si>
+    <t>9,23</t>
+  </si>
+  <si>
+    <t>471,62</t>
+  </si>
+  <si>
+    <t>APARECIDA MIRANDA DIAS: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: GUILHERME NOVAIS MACHADO</t>
+  </si>
+  <si>
+    <t>Contrato: 0034-0</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)96064-2961</t>
+  </si>
+  <si>
+    <t>Unidade: Up Estação São Lucas, Décimo primeiro pavimento, Apartamento 1108</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>296,67</t>
+  </si>
+  <si>
+    <t>0,44</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>5,94</t>
+  </si>
+  <si>
+    <t>304,24</t>
+  </si>
+  <si>
+    <t>GUILHERME NOVAIS MACHADO: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: MARCO ANTONIO PASTOR GALLEGOS</t>
+  </si>
+  <si>
+    <t>Contrato: 0056-0</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)99765-5787</t>
+  </si>
+  <si>
+    <t>Unidade: Up Estação São Lucas, Quarto pavimento, Apartamento 403</t>
+  </si>
+  <si>
+    <t>001/038</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
     <t>25/02/2025</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>003/004</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>457,15</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>1,26</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1.507,50</t>
+  </si>
+  <si>
+    <t>13,72</t>
+  </si>
+  <si>
+    <t>17,75</t>
+  </si>
+  <si>
+    <t>30,42</t>
+  </si>
+  <si>
+    <t>1.569,39</t>
+  </si>
+  <si>
+    <t>002/038</t>
+  </si>
+  <si>
+    <t>1.520,01</t>
   </si>
   <si>
     <t>1,22</t>
   </si>
   <si>
-    <t>9,17</t>
-  </si>
-  <si>
-    <t>468,80</t>
-  </si>
-  <si>
-    <t>APARECIDA MIRANDA DIAS: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: BEATRIZ DA SILVA VIEIRA</t>
-  </si>
-  <si>
-    <t>Contrato: 0035-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)98214-9717</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Décimo quarto pavimento, Apartamento 1402</t>
-  </si>
-  <si>
-    <t>001/037</t>
-  </si>
-  <si>
-    <t>MEN</t>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>1.555,20</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO PASTOR GALLEGOS: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>3.124,59</t>
+  </si>
+  <si>
+    <t>3.027,51</t>
+  </si>
+  <si>
+    <t>14,94</t>
+  </si>
+  <si>
+    <t>21,30</t>
+  </si>
+  <si>
+    <t>60,84</t>
+  </si>
+  <si>
+    <t>Cliente: REGINA BOMFIM DA ROCHA</t>
+  </si>
+  <si>
+    <t>Contrato: 0032-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)95850-0177</t>
+  </si>
+  <si>
+    <t>Unidade: Up Estação São Lucas, Sétimo pavimento, Apartamento 703</t>
+  </si>
+  <si>
+    <t>001/005</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>453,74</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>3,34</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>467,45</t>
+  </si>
+  <si>
+    <t>REGINA BOMFIM DA ROCHA: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: SAMIRA MOHAMAD MAJZOUB</t>
+  </si>
+  <si>
+    <t>Contrato: 0033-0</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)99277-1194</t>
+  </si>
+  <si>
+    <t>Unidade: Up Estação São Lucas, Nono pavimento, Apartamento 907</t>
+  </si>
+  <si>
+    <t>002/036</t>
   </si>
   <si>
     <t>10/02/2025</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>304,76</t>
-  </si>
-  <si>
-    <t>2,11</t>
-  </si>
-  <si>
-    <t>2,35</t>
-  </si>
-  <si>
-    <t>6,14</t>
-  </si>
-  <si>
-    <t>315,36</t>
-  </si>
-  <si>
-    <t>BEATRIZ DA SILVA VIEIRA: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: DIEGO ANDRADE DA SILVA</t>
-  </si>
-  <si>
-    <t>Contrato: 0054-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx31)95589-2045</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Primeiro pavimento, Apartamento 104</t>
-  </si>
-  <si>
-    <t>002/002</t>
-  </si>
-  <si>
-    <t>20/02/2025</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1.206,00</t>
-  </si>
-  <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>5,25</t>
-  </si>
-  <si>
-    <t>24,22</t>
-  </si>
-  <si>
-    <t>1.240,47</t>
-  </si>
-  <si>
-    <t>DIEGO ANDRADE DA SILVA: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: ESSAM YOUSEF MOHAMEAD AL ARYAN</t>
-  </si>
-  <si>
-    <t>Contrato: 0026-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)97051-1399</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Décimo sexto pavimento, Apartamento 1602</t>
-  </si>
-  <si>
-    <t>1.203,82</t>
-  </si>
-  <si>
-    <t>8,33</t>
-  </si>
-  <si>
-    <t>9,29</t>
-  </si>
-  <si>
-    <t>24,24</t>
-  </si>
-  <si>
-    <t>1.245,68</t>
-  </si>
-  <si>
-    <t>ESSAM YOUSEF MOHAMEAD AL ARYAN: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: GUILHERME NOVAIS MACHADO</t>
-  </si>
-  <si>
-    <t>Contrato: 0034-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)96064-2961</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Décimo primeiro pavimento, Apartamento 1108</t>
-  </si>
-  <si>
-    <t>294,23</t>
-  </si>
-  <si>
-    <t>1,28</t>
-  </si>
-  <si>
-    <t>5,91</t>
-  </si>
-  <si>
-    <t>302,64</t>
-  </si>
-  <si>
-    <t>GUILHERME NOVAIS MACHADO: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: JOSE ALVES DA COSTA</t>
-  </si>
-  <si>
-    <t>Contrato: 0028-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)97034-7311</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Décimo primeiro pavimento, Apartamento 1103</t>
-  </si>
-  <si>
-    <t>002/036</t>
-  </si>
-  <si>
-    <t>151,35</t>
-  </si>
-  <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>3,05</t>
-  </si>
-  <si>
-    <t>156,62</t>
-  </si>
-  <si>
-    <t>JOSE ALVES DA COSTA: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: MARCO ANTONIO PASTOR GALLEGOS</t>
-  </si>
-  <si>
-    <t>Contrato: 0056-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)99765-5787</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Quarto pavimento, Apartamento 403</t>
-  </si>
-  <si>
-    <t>001/038</t>
-  </si>
-  <si>
-    <t>1.507,50</t>
-  </si>
-  <si>
-    <t>4,17</t>
-  </si>
-  <si>
-    <t>4,03</t>
-  </si>
-  <si>
-    <t>30,23</t>
-  </si>
-  <si>
-    <t>1.545,93</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO PASTOR GALLEGOS: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: SAMIRA MOHAMAD MAJZOUB</t>
-  </si>
-  <si>
-    <t>Contrato: 0033-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)99277-1194</t>
-  </si>
-  <si>
-    <t>Unidade: Up Estação São Lucas, Nono pavimento, Apartamento 907</t>
+    <t>50</t>
   </si>
   <si>
     <t>201,80</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
-    <t>1,56</t>
-  </si>
-  <si>
-    <t>4,06</t>
-  </si>
-  <si>
-    <t>208,82</t>
-  </si>
-  <si>
-    <t>SAMIRA MOHAMAD MAJZOUB: 1 Parcela</t>
+    <t>2,24</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
+    <t>4,08</t>
+  </si>
+  <si>
+    <t>211,52</t>
+  </si>
+  <si>
+    <t>003/036</t>
+  </si>
+  <si>
+    <t>203,48</t>
+  </si>
+  <si>
+    <t>0,57</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>209,63</t>
+  </si>
+  <si>
+    <t>SAMIRA MOHAMAD MAJZOUB: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>421,15</t>
+  </si>
+  <si>
+    <t>405,28</t>
+  </si>
+  <si>
+    <t>2,81</t>
+  </si>
+  <si>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>8,16</t>
   </si>
   <si>
     <t>Cliente: SAMUEL ARAUJO DA SILVA</t>
@@ -390,43 +362,43 @@
     <t>Unidade: Up Estação São Lucas, Décimo pavimento, Apartamento 1009</t>
   </si>
   <si>
-    <t>588,26</t>
-  </si>
-  <si>
-    <t>2,44</t>
-  </si>
-  <si>
-    <t>2,56</t>
-  </si>
-  <si>
-    <t>11,81</t>
-  </si>
-  <si>
-    <t>605,07</t>
+    <t>593,14</t>
+  </si>
+  <si>
+    <t>0,87</t>
+  </si>
+  <si>
+    <t>2,38</t>
+  </si>
+  <si>
+    <t>11,88</t>
+  </si>
+  <si>
+    <t>608,27</t>
   </si>
   <si>
     <t>SAMUEL ARAUJO DA SILVA: 1 Parcela</t>
   </si>
   <si>
-    <t>Total: 9 Contratos em Atraso</t>
-  </si>
-  <si>
-    <t>5.914,87</t>
-  </si>
-  <si>
-    <t>26,98</t>
-  </si>
-  <si>
-    <t>28,71</t>
-  </si>
-  <si>
-    <t>118,83</t>
-  </si>
-  <si>
-    <t>6.089,39</t>
-  </si>
-  <si>
-    <t>Total Geral: 9 Contratos em Atraso</t>
+    <t>Total: 6 Contratos em Atraso</t>
+  </si>
+  <si>
+    <t>5.237,28</t>
+  </si>
+  <si>
+    <t>20,70</t>
+  </si>
+  <si>
+    <t>34,19</t>
+  </si>
+  <si>
+    <t>105,15</t>
+  </si>
+  <si>
+    <t>5.397,32</t>
+  </si>
+  <si>
+    <t>Total Geral: 6 Contratos em Atraso</t>
   </si>
   <si>
     <t>Total Adesão Geral</t>
@@ -528,10 +500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,18 +789,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:O53"/>
+  <dimension ref="B4:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
@@ -892,12 +860,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -905,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -913,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -957,7 +925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -983,7 +951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -991,7 +959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -999,7 +967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1007,85 +975,85 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1093,658 +1061,482 @@
         <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="1" t="s">
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="N22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="1" t="s">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="K40" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="K41" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I53" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>131</v>
+      <c r="K43" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1754,17 +1546,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1773,7 +1554,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006C56FB2846673243A9735D5EC6051572" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="941ba21155b641a9d77936be19967558">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a5f483f-f768-438e-b4ef-63f46a7558dd" xmlns:ns3="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="469d177505629adaca6589b93d36bf5c" ns2:_="" ns3:_="">
     <xsd:import namespace="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
@@ -1968,8 +1749,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275CAFE0-3420-4999-8196-10CAC7206D9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF3BAB1-FBDA-4D51-8C46-879D0045AEDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20825B1F-BEED-4906-BD3F-285DBF5EF4EF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{994A7001-8B95-42FB-B9EC-C0877D0A3C28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1977,16 +1781,4 @@
     <ds:schemaRef ds:uri="c405a192-d21e-4b21-b179-6db9231ad0c5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{238E50E4-8B48-493F-B6E5-2357BBF31627}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AB8E4A-53E9-45BA-AD80-51E67CCEC28D}"/>
 </file>